--- a/Test plan - GuessTheNumber - Sander van den Hoogen.xlsx
+++ b/Test plan - GuessTheNumber - Sander van den Hoogen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Dropbox Benjamin\Dropbox\ROC Ter AA\Lessen\AO\2016 - 2017\Front-End Ontwikkeling\Leerjaar 1\Semester 1\Portfolio\Portfolio TTO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\laragon\www\GuessTheNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B9C20A-35B0-40D3-A779-25C7F4105E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$34</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>wb</t>
   </si>
@@ -41,9 +42,6 @@
     <t>nok</t>
   </si>
   <si>
-    <t>Tested by, name ???</t>
-  </si>
-  <si>
     <t>Wat are you testing (feature)</t>
   </si>
   <si>
@@ -54,13 +52,64 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Tested by Sander van den Hoogen</t>
+  </si>
+  <si>
+    <t>Playing game twice at 870 max number, name Gerard, on chrome using iphone x simulation mode.</t>
+  </si>
+  <si>
+    <t>Playing game once at 400 max number, name left empty, ticked cheat and debug on mozilla browser, then resetting all variables.</t>
+  </si>
+  <si>
+    <t>Playing game achieving new highscore on internet explorer non-maximized, going back to game setup screen on one game.</t>
+  </si>
+  <si>
+    <t>Fully functional, responsive design, great user experience.</t>
+  </si>
+  <si>
+    <t>Playing game twice at 20, name ;DROP TABLE highscores;, ticked cheat, on firefox mobile emulation mode, achieving new highscore.</t>
+  </si>
+  <si>
+    <t>Name is automatically filled to anonymous, fully functional, full game reset at end.</t>
+  </si>
+  <si>
+    <t>Playing game three times at 1000 max number, name &lt;h1 class="text-primary"&gt;Html injection&lt;/h1&gt;, ticked debug on microsoft edge, with resized window, on 50 % zoom, achieving highscore.</t>
+  </si>
+  <si>
+    <t>Full functionality, no problems, database should have sql protection so database table shouldn't be dropped.</t>
+  </si>
+  <si>
+    <t>Full functionality.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Information about your guess is hidden from user on regular playing, it is of screen and requires user to scroll down continually to view information about his guess.</t>
+  </si>
+  <si>
+    <t>Everything went as expected.</t>
+  </si>
+  <si>
+    <t>Fully functional, no problems. Name should automatically have html stripped from it and 1000 shouldn't be able to be entered, and if it is entered it should be caught by php and dealt with.</t>
+  </si>
+  <si>
+    <t>1000 is unachievable, so expected. Html injection is filtered out when the highscore is sent to database, but not when data is retrieved from post, which results in the user seeing the html injection on his side in statistics and debug values.</t>
+  </si>
+  <si>
+    <t>Fully functioned as expected. Database had php sql injection protection, so it knew how to handle information correctly and didn't actually carry out malicious command.</t>
+  </si>
+  <si>
+    <t>Nothing exciting, all fully functional as expected.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +120,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -163,11 +219,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -447,217 +504,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="59.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="4" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="52.7109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H35"/>
+  <autoFilter ref="A2:H34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
